--- a/impact_template.xlsx
+++ b/impact_template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentoliveira/PycharmProjects/ttlf_lab_impact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentoliveira/PycharmProjects/ttlf_lab_impact/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6A1933-E69F-364F-974C-121B9853FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6BC60-D98E-B244-BD1A-797E995AE3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="impact_data" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve"> Le TABLEAU D'IMPACT du Lab</t>
   </si>
@@ -43,9 +44,6 @@
   </si>
   <si>
     <t>Deck #1</t>
-  </si>
-  <si>
-    <t>24 Octobre 2023</t>
   </si>
   <si>
     <t>Pick #1</t>
@@ -153,7 +151,94 @@
     <t>Ce soir</t>
   </si>
   <si>
-    <t>matchs NBA</t>
+    <t>PLAYER_ID</t>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+  </si>
+  <si>
+    <t>BACK_TO_BACK</t>
+  </si>
+  <si>
+    <t>SEASON_AVG</t>
+  </si>
+  <si>
+    <t>30_DAYS_AVG</t>
+  </si>
+  <si>
+    <t>10_DAYS_AVG</t>
+  </si>
+  <si>
+    <t>30_DAYS_NB_PLAYED</t>
+  </si>
+  <si>
+    <t>30_DAYS_BELOW_20</t>
+  </si>
+  <si>
+    <t>30_DAYS_20_30</t>
+  </si>
+  <si>
+    <t>30_DAYS_30_40</t>
+  </si>
+  <si>
+    <t>30_DAYS_ABOVE_40</t>
+  </si>
+  <si>
+    <t>LAST_4_GAME</t>
+  </si>
+  <si>
+    <t>LAST_3_GAME</t>
+  </si>
+  <si>
+    <t>LAST_2_GAME</t>
+  </si>
+  <si>
+    <t>LAST_GAME</t>
+  </si>
+  <si>
+    <t>MATCHUP</t>
+  </si>
+  <si>
+    <t>OPPONENT_B2B</t>
+  </si>
+  <si>
+    <t>LAST_3_MATCHUP</t>
+  </si>
+  <si>
+    <t>LAST_2_MATCHUP</t>
+  </si>
+  <si>
+    <t>LAST_MATCHUP</t>
+  </si>
+  <si>
+    <t>PLAYER_POSITION</t>
+  </si>
+  <si>
+    <t>POSITION_IMPACT</t>
+  </si>
+  <si>
+    <t>HOME_AWAY</t>
+  </si>
+  <si>
+    <t>HOME_AWAY_IMPACT</t>
+  </si>
+  <si>
+    <t>BACK_TO_BACK_IMPACT</t>
+  </si>
+  <si>
+    <t>NB_BACK_TO_BACK_PLAYED</t>
+  </si>
+  <si>
+    <t>TTFL_PREDICTION</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>nb_games</t>
+  </si>
+  <si>
+    <t>matchs #NBA</t>
   </si>
 </sst>
 </file>
@@ -399,16 +484,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="42"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -979,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1338,57 +1425,36 @@
     <xf numFmtId="0" fontId="31" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1404,11 +1470,11 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1420,6 +1486,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,13 +1513,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1456,6 +1528,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1814,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="AD71" sqref="AD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,53 +1922,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
+      <c r="A1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="156"/>
+      <c r="AN1" s="156"/>
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="156"/>
+      <c r="AQ1" s="156"/>
+      <c r="AR1" s="156"/>
     </row>
     <row r="2" spans="1:44" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160"/>
+      <c r="A2" s="157"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1938,49 +2014,49 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="5"/>
       <c r="C3" s="110"/>
       <c r="D3" s="120"/>
-      <c r="E3" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="168"/>
+      <c r="E3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="166" t="s">
+      <c r="T3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="168"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="153"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="166" t="s">
+      <c r="AG3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="168"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="152"/>
+      <c r="AK3" s="153"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
@@ -1990,47 +2066,48 @@
       <c r="AR3" s="4"/>
     </row>
     <row r="4" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="5"/>
       <c r="C4" s="111"/>
       <c r="D4" s="121"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="132" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="134"/>
+      <c r="T4" s="133">
+        <f>metadata!A2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="135"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="132" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="134"/>
+      <c r="AG4" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="135"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
@@ -2040,7 +2117,7 @@
       <c r="AR4" s="4"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2086,10 +2163,10 @@
       <c r="AR5" s="4"/>
     </row>
     <row r="6" spans="1:44" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -2097,54 +2174,54 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="124"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="152" t="s">
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="164" t="s">
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="173" t="s">
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="163" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="153"/>
-      <c r="AJ6" s="153"/>
-      <c r="AK6" s="153"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="153"/>
-      <c r="AN6" s="153"/>
-      <c r="AO6" s="153"/>
-      <c r="AP6" s="154"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="147"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="4"/>
     </row>
     <row r="7" spans="1:44" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="161"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2153,148 +2230,148 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="155" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="J7" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="149"/>
+      <c r="L7" s="150"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="144" t="str">
+      <c r="N7" s="137" t="str">
         <f>"Perfs sur les 30 derniers jours"</f>
         <v>Perfs sur les 30 derniers jours</v>
       </c>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="146"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="148" t="s">
+      <c r="T7" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="169" t="s">
+      <c r="AH7" s="138"/>
+      <c r="AI7" s="138"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="150" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="146"/>
+      <c r="AM7" s="139"/>
       <c r="AN7" s="15"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="145"/>
+      <c r="AO7" s="140"/>
+      <c r="AP7" s="138"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="4"/>
     </row>
     <row r="8" spans="1:44" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="5"/>
       <c r="C8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="M8" s="112"/>
       <c r="N8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="P8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="Q8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="R8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="S8" s="113"/>
+      <c r="T8" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="113"/>
-      <c r="T8" s="143" t="s">
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="171" t="s">
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="27" t="s">
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="128"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="124"/>
       <c r="AF8" s="116"/>
       <c r="AG8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH8" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="AH8" s="126" t="s">
+      <c r="AI8" s="130"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="117"/>
+      <c r="AL8" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="127"/>
-      <c r="AJ8" s="128"/>
-      <c r="AK8" s="117"/>
-      <c r="AL8" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM8" s="128"/>
+      <c r="AM8" s="124"/>
       <c r="AN8" s="117"/>
       <c r="AO8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP8" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="AP8" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="4"/>
     </row>
     <row r="9" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="141">
+      <c r="D9" s="144">
         <f>impact_data!B2</f>
         <v>0</v>
       </c>
-      <c r="E9" s="142"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="32">
         <f>impact_data!C2</f>
         <v>0</v>
@@ -2405,14 +2482,14 @@
       <c r="AR9" s="4"/>
     </row>
     <row r="10" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="30"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="135">
+      <c r="D10" s="131">
         <f>impact_data!B3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="136"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="54">
         <f>impact_data!C3</f>
         <v>0</v>
@@ -2523,14 +2600,14 @@
       <c r="AR10" s="4"/>
     </row>
     <row r="11" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="30"/>
       <c r="C11" s="66"/>
-      <c r="D11" s="137">
+      <c r="D11" s="136">
         <f>impact_data!B4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="138"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="67">
         <f>impact_data!C4</f>
         <v>0</v>
@@ -2641,14 +2718,14 @@
       <c r="AR11" s="4"/>
     </row>
     <row r="12" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="161"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="30"/>
       <c r="C12" s="79"/>
-      <c r="D12" s="139">
+      <c r="D12" s="123">
         <f>impact_data!B5</f>
         <v>0</v>
       </c>
-      <c r="E12" s="140"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="80">
         <f>impact_data!C5</f>
         <v>0</v>
@@ -2759,14 +2836,14 @@
       <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="141">
+      <c r="D13" s="144">
         <f>impact_data!B6</f>
         <v>0</v>
       </c>
-      <c r="E13" s="142"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="32">
         <f>impact_data!C6</f>
         <v>0</v>
@@ -2877,14 +2954,14 @@
       <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="30"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="135">
+      <c r="D14" s="131">
         <f>impact_data!B7</f>
         <v>0</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="54">
         <f>impact_data!C7</f>
         <v>0</v>
@@ -2995,14 +3072,14 @@
       <c r="AR14" s="4"/>
     </row>
     <row r="15" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="161"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="30"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="137">
+      <c r="D15" s="136">
         <f>impact_data!B8</f>
         <v>0</v>
       </c>
-      <c r="E15" s="138"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="67">
         <f>impact_data!C8</f>
         <v>0</v>
@@ -3113,14 +3190,14 @@
       <c r="AR15" s="4"/>
     </row>
     <row r="16" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="161"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="30"/>
       <c r="C16" s="79"/>
-      <c r="D16" s="139">
+      <c r="D16" s="123">
         <f>impact_data!B9</f>
         <v>0</v>
       </c>
-      <c r="E16" s="140"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="80">
         <f>impact_data!C9</f>
         <v>0</v>
@@ -3231,14 +3308,14 @@
       <c r="AR16" s="4"/>
     </row>
     <row r="17" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="141">
+      <c r="D17" s="144">
         <f>impact_data!B10</f>
         <v>0</v>
       </c>
-      <c r="E17" s="142"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="32">
         <f>impact_data!C10</f>
         <v>0</v>
@@ -3349,14 +3426,14 @@
       <c r="AR17" s="4"/>
     </row>
     <row r="18" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="161"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="30"/>
       <c r="C18" s="53"/>
-      <c r="D18" s="135">
+      <c r="D18" s="131">
         <f>impact_data!B11</f>
         <v>0</v>
       </c>
-      <c r="E18" s="136"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="54">
         <f>impact_data!C11</f>
         <v>0</v>
@@ -3467,14 +3544,14 @@
       <c r="AR18" s="4"/>
     </row>
     <row r="19" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="161"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="30"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="137">
+      <c r="D19" s="136">
         <f>impact_data!B12</f>
         <v>0</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="67">
         <f>impact_data!C12</f>
         <v>0</v>
@@ -3585,14 +3662,14 @@
       <c r="AR19" s="4"/>
     </row>
     <row r="20" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="161"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="30"/>
       <c r="C20" s="79"/>
-      <c r="D20" s="139">
+      <c r="D20" s="123">
         <f>impact_data!B13</f>
         <v>0</v>
       </c>
-      <c r="E20" s="140"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="80">
         <f>impact_data!C13</f>
         <v>0</v>
@@ -3703,14 +3780,14 @@
       <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="161"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="141">
+      <c r="D21" s="144">
         <f>impact_data!B14</f>
         <v>0</v>
       </c>
-      <c r="E21" s="142"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="32">
         <f>impact_data!C14</f>
         <v>0</v>
@@ -3821,14 +3898,14 @@
       <c r="AR21" s="4"/>
     </row>
     <row r="22" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="161"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="30"/>
       <c r="C22" s="53"/>
-      <c r="D22" s="135">
+      <c r="D22" s="131">
         <f>impact_data!B15</f>
         <v>0</v>
       </c>
-      <c r="E22" s="136"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="54">
         <f>impact_data!C15</f>
         <v>0</v>
@@ -3939,14 +4016,14 @@
       <c r="AR22" s="4"/>
     </row>
     <row r="23" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="161"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="30"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="137">
+      <c r="D23" s="136">
         <f>impact_data!B16</f>
         <v>0</v>
       </c>
-      <c r="E23" s="138"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="67">
         <f>impact_data!C16</f>
         <v>0</v>
@@ -4057,14 +4134,14 @@
       <c r="AR23" s="4"/>
     </row>
     <row r="24" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="161"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="30"/>
       <c r="C24" s="79"/>
-      <c r="D24" s="139">
+      <c r="D24" s="123">
         <f>impact_data!B17</f>
         <v>0</v>
       </c>
-      <c r="E24" s="140"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="80">
         <f>impact_data!C17</f>
         <v>0</v>
@@ -4175,14 +4252,14 @@
       <c r="AR24" s="4"/>
     </row>
     <row r="25" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="161"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="141">
+      <c r="D25" s="144">
         <f>impact_data!B18</f>
         <v>0</v>
       </c>
-      <c r="E25" s="142"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="32">
         <f>impact_data!C18</f>
         <v>0</v>
@@ -4293,14 +4370,14 @@
       <c r="AR25" s="4"/>
     </row>
     <row r="26" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="161"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="30"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="135">
+      <c r="D26" s="131">
         <f>impact_data!B19</f>
         <v>0</v>
       </c>
-      <c r="E26" s="136"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="54">
         <f>impact_data!C19</f>
         <v>0</v>
@@ -4411,14 +4488,14 @@
       <c r="AR26" s="4"/>
     </row>
     <row r="27" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="161"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="30"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="137">
+      <c r="D27" s="136">
         <f>impact_data!B20</f>
         <v>0</v>
       </c>
-      <c r="E27" s="138"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="67">
         <f>impact_data!C20</f>
         <v>0</v>
@@ -4529,14 +4606,14 @@
       <c r="AR27" s="4"/>
     </row>
     <row r="28" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="30"/>
       <c r="C28" s="79"/>
-      <c r="D28" s="139">
+      <c r="D28" s="123">
         <f>impact_data!B21</f>
         <v>0</v>
       </c>
-      <c r="E28" s="140"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="80">
         <f>impact_data!C21</f>
         <v>0</v>
@@ -4647,14 +4724,14 @@
       <c r="AR28" s="4"/>
     </row>
     <row r="29" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="161"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="141">
+      <c r="D29" s="144">
         <f>impact_data!B22</f>
         <v>0</v>
       </c>
-      <c r="E29" s="142"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="32">
         <f>impact_data!C22</f>
         <v>0</v>
@@ -4765,14 +4842,14 @@
       <c r="AR29" s="4"/>
     </row>
     <row r="30" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="30"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="135">
+      <c r="D30" s="131">
         <f>impact_data!B23</f>
         <v>0</v>
       </c>
-      <c r="E30" s="136"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="54">
         <f>impact_data!C23</f>
         <v>0</v>
@@ -4883,14 +4960,14 @@
       <c r="AR30" s="4"/>
     </row>
     <row r="31" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="161"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="30"/>
       <c r="C31" s="66"/>
-      <c r="D31" s="137">
+      <c r="D31" s="136">
         <f>impact_data!B24</f>
         <v>0</v>
       </c>
-      <c r="E31" s="138"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="67">
         <f>impact_data!C24</f>
         <v>0</v>
@@ -5001,14 +5078,14 @@
       <c r="AR31" s="4"/>
     </row>
     <row r="32" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="161"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="30"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="139">
+      <c r="D32" s="123">
         <f>impact_data!B25</f>
         <v>0</v>
       </c>
-      <c r="E32" s="140"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="80">
         <f>impact_data!C25</f>
         <v>0</v>
@@ -5119,14 +5196,14 @@
       <c r="AR32" s="4"/>
     </row>
     <row r="33" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="161"/>
+      <c r="A33" s="158"/>
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="141">
+      <c r="D33" s="144">
         <f>impact_data!B26</f>
         <v>0</v>
       </c>
-      <c r="E33" s="142"/>
+      <c r="E33" s="124"/>
       <c r="F33" s="32">
         <f>impact_data!C26</f>
         <v>0</v>
@@ -5237,14 +5314,14 @@
       <c r="AR33" s="4"/>
     </row>
     <row r="34" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="161"/>
+      <c r="A34" s="158"/>
       <c r="B34" s="30"/>
       <c r="C34" s="53"/>
-      <c r="D34" s="135">
+      <c r="D34" s="131">
         <f>impact_data!B27</f>
         <v>0</v>
       </c>
-      <c r="E34" s="136"/>
+      <c r="E34" s="124"/>
       <c r="F34" s="54">
         <f>impact_data!C27</f>
         <v>0</v>
@@ -5355,14 +5432,14 @@
       <c r="AR34" s="4"/>
     </row>
     <row r="35" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="161"/>
+      <c r="A35" s="158"/>
       <c r="B35" s="30"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="137">
+      <c r="D35" s="136">
         <f>impact_data!B28</f>
         <v>0</v>
       </c>
-      <c r="E35" s="138"/>
+      <c r="E35" s="124"/>
       <c r="F35" s="67">
         <f>impact_data!C28</f>
         <v>0</v>
@@ -5473,14 +5550,14 @@
       <c r="AR35" s="4"/>
     </row>
     <row r="36" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="161"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="30"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="139">
+      <c r="D36" s="123">
         <f>impact_data!B29</f>
         <v>0</v>
       </c>
-      <c r="E36" s="140"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="80">
         <f>impact_data!C29</f>
         <v>0</v>
@@ -5591,14 +5668,14 @@
       <c r="AR36" s="4"/>
     </row>
     <row r="37" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="161"/>
+      <c r="A37" s="158"/>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="141">
+      <c r="D37" s="144">
         <f>impact_data!B30</f>
         <v>0</v>
       </c>
-      <c r="E37" s="142"/>
+      <c r="E37" s="124"/>
       <c r="F37" s="32">
         <f>impact_data!C30</f>
         <v>0</v>
@@ -5709,14 +5786,14 @@
       <c r="AR37" s="4"/>
     </row>
     <row r="38" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="161"/>
+      <c r="A38" s="158"/>
       <c r="B38" s="30"/>
       <c r="C38" s="53"/>
-      <c r="D38" s="135">
+      <c r="D38" s="131">
         <f>impact_data!B31</f>
         <v>0</v>
       </c>
-      <c r="E38" s="136"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="54">
         <f>impact_data!C31</f>
         <v>0</v>
@@ -5827,14 +5904,14 @@
       <c r="AR38" s="4"/>
     </row>
     <row r="39" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="161"/>
+      <c r="A39" s="158"/>
       <c r="B39" s="30"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="137">
+      <c r="D39" s="136">
         <f>impact_data!B32</f>
         <v>0</v>
       </c>
-      <c r="E39" s="138"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="67">
         <f>impact_data!C32</f>
         <v>0</v>
@@ -5945,14 +6022,14 @@
       <c r="AR39" s="4"/>
     </row>
     <row r="40" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="161"/>
+      <c r="A40" s="158"/>
       <c r="B40" s="30"/>
       <c r="C40" s="79"/>
-      <c r="D40" s="139">
+      <c r="D40" s="123">
         <f>impact_data!B33</f>
         <v>0</v>
       </c>
-      <c r="E40" s="140"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="80">
         <f>impact_data!C33</f>
         <v>0</v>
@@ -6063,14 +6140,14 @@
       <c r="AR40" s="4"/>
     </row>
     <row r="41" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="161"/>
+      <c r="A41" s="158"/>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
-      <c r="D41" s="141">
+      <c r="D41" s="144">
         <f>impact_data!B34</f>
         <v>0</v>
       </c>
-      <c r="E41" s="142"/>
+      <c r="E41" s="124"/>
       <c r="F41" s="32">
         <f>impact_data!C34</f>
         <v>0</v>
@@ -6181,14 +6258,14 @@
       <c r="AR41" s="4"/>
     </row>
     <row r="42" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="161"/>
+      <c r="A42" s="158"/>
       <c r="B42" s="30"/>
       <c r="C42" s="53"/>
-      <c r="D42" s="135">
+      <c r="D42" s="131">
         <f>impact_data!B35</f>
         <v>0</v>
       </c>
-      <c r="E42" s="136"/>
+      <c r="E42" s="124"/>
       <c r="F42" s="54">
         <f>impact_data!C35</f>
         <v>0</v>
@@ -6299,14 +6376,14 @@
       <c r="AR42" s="4"/>
     </row>
     <row r="43" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="161"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="30"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="137">
+      <c r="D43" s="136">
         <f>impact_data!B36</f>
         <v>0</v>
       </c>
-      <c r="E43" s="138"/>
+      <c r="E43" s="124"/>
       <c r="F43" s="67">
         <f>impact_data!C36</f>
         <v>0</v>
@@ -6417,14 +6494,14 @@
       <c r="AR43" s="4"/>
     </row>
     <row r="44" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="161"/>
+      <c r="A44" s="158"/>
       <c r="B44" s="30"/>
       <c r="C44" s="79"/>
-      <c r="D44" s="139">
+      <c r="D44" s="123">
         <f>impact_data!B37</f>
         <v>0</v>
       </c>
-      <c r="E44" s="140"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="80">
         <f>impact_data!C37</f>
         <v>0</v>
@@ -6535,14 +6612,14 @@
       <c r="AR44" s="4"/>
     </row>
     <row r="45" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="161"/>
+      <c r="A45" s="158"/>
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
-      <c r="D45" s="141">
+      <c r="D45" s="144">
         <f>impact_data!B38</f>
         <v>0</v>
       </c>
-      <c r="E45" s="142"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="32">
         <f>impact_data!C38</f>
         <v>0</v>
@@ -6653,14 +6730,14 @@
       <c r="AR45" s="4"/>
     </row>
     <row r="46" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="161"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="30"/>
       <c r="C46" s="53"/>
-      <c r="D46" s="135">
+      <c r="D46" s="131">
         <f>impact_data!B39</f>
         <v>0</v>
       </c>
-      <c r="E46" s="136"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="54">
         <f>impact_data!C39</f>
         <v>0</v>
@@ -6771,14 +6848,14 @@
       <c r="AR46" s="4"/>
     </row>
     <row r="47" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="161"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="30"/>
       <c r="C47" s="66"/>
-      <c r="D47" s="137">
+      <c r="D47" s="136">
         <f>impact_data!B40</f>
         <v>0</v>
       </c>
-      <c r="E47" s="138"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="67">
         <f>impact_data!C40</f>
         <v>0</v>
@@ -6889,14 +6966,14 @@
       <c r="AR47" s="4"/>
     </row>
     <row r="48" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="161"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="30"/>
       <c r="C48" s="79"/>
-      <c r="D48" s="139">
+      <c r="D48" s="123">
         <f>impact_data!B41</f>
         <v>0</v>
       </c>
-      <c r="E48" s="140"/>
+      <c r="E48" s="124"/>
       <c r="F48" s="80">
         <f>impact_data!C41</f>
         <v>0</v>
@@ -7007,7 +7084,7 @@
       <c r="AR48" s="4"/>
     </row>
     <row r="49" spans="1:44" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="161"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="5"/>
       <c r="C49" s="118"/>
       <c r="D49" s="118"/>
@@ -7053,19 +7130,19 @@
       <c r="AR49" s="4"/>
     </row>
     <row r="50" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="5"/>
       <c r="C50" s="93"/>
-      <c r="D50" s="172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
+      <c r="D50" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
       <c r="I50" s="6"/>
       <c r="J50" s="95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -7103,14 +7180,14 @@
       <c r="AR50" s="4"/>
     </row>
     <row r="51" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="161"/>
+      <c r="A51" s="158"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="124"/>
       <c r="I51" s="6"/>
       <c r="J51" s="96"/>
       <c r="K51" s="97"/>
@@ -7127,15 +7204,15 @@
       <c r="V51" s="97"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z51" s="130"/>
-      <c r="AA51" s="130"/>
-      <c r="AB51" s="130"/>
-      <c r="AC51" s="130"/>
-      <c r="AD51" s="130"/>
-      <c r="AE51" s="130"/>
+      <c r="Y51" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="128"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
@@ -7151,14 +7228,14 @@
       <c r="AR51" s="4"/>
     </row>
     <row r="52" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="161"/>
+      <c r="A52" s="158"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="124"/>
       <c r="I52" s="6"/>
       <c r="J52" s="96"/>
       <c r="K52" s="97"/>
@@ -7175,13 +7252,13 @@
       <c r="V52" s="97"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="130"/>
-      <c r="AE52" s="130"/>
+      <c r="Y52" s="128"/>
+      <c r="Z52" s="128"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
       <c r="AF52" s="98"/>
       <c r="AG52" s="98"/>
       <c r="AH52" s="6"/>
@@ -7197,14 +7274,14 @@
       <c r="AR52" s="4"/>
     </row>
     <row r="53" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="161"/>
+      <c r="A53" s="158"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="124"/>
       <c r="I53" s="6"/>
       <c r="J53" s="96"/>
       <c r="K53" s="97"/>
@@ -7221,13 +7298,16 @@
       <c r="V53" s="97"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="129"/>
-      <c r="Z53" s="130"/>
-      <c r="AA53" s="130"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="130"/>
-      <c r="AD53" s="130"/>
-      <c r="AE53" s="130"/>
+      <c r="Y53" s="169">
+        <f>metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="170"/>
+      <c r="AA53" s="170"/>
+      <c r="AB53" s="170"/>
+      <c r="AC53" s="170"/>
+      <c r="AD53" s="170"/>
+      <c r="AE53" s="170"/>
       <c r="AF53" s="99"/>
       <c r="AG53" s="98"/>
       <c r="AH53" s="6"/>
@@ -7243,14 +7323,14 @@
       <c r="AR53" s="4"/>
     </row>
     <row r="54" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="161"/>
+      <c r="A54" s="158"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="128"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="124"/>
       <c r="I54" s="6"/>
       <c r="J54" s="96"/>
       <c r="K54" s="97"/>
@@ -7267,13 +7347,13 @@
       <c r="V54" s="97"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="130"/>
-      <c r="Z54" s="130"/>
-      <c r="AA54" s="130"/>
-      <c r="AB54" s="130"/>
-      <c r="AC54" s="130"/>
-      <c r="AD54" s="130"/>
-      <c r="AE54" s="130"/>
+      <c r="Y54" s="170"/>
+      <c r="Z54" s="170"/>
+      <c r="AA54" s="170"/>
+      <c r="AB54" s="170"/>
+      <c r="AC54" s="170"/>
+      <c r="AD54" s="170"/>
+      <c r="AE54" s="170"/>
       <c r="AF54" s="99"/>
       <c r="AG54" s="98"/>
       <c r="AH54" s="6"/>
@@ -7289,14 +7369,14 @@
       <c r="AR54" s="4"/>
     </row>
     <row r="55" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="161"/>
+      <c r="A55" s="158"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="128"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="124"/>
       <c r="I55" s="6"/>
       <c r="J55" s="96"/>
       <c r="K55" s="97"/>
@@ -7313,15 +7393,15 @@
       <c r="V55" s="97"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z55" s="130"/>
-      <c r="AA55" s="130"/>
-      <c r="AB55" s="130"/>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130"/>
-      <c r="AE55" s="130"/>
+      <c r="Y55" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
+      <c r="AC55" s="128"/>
+      <c r="AD55" s="128"/>
+      <c r="AE55" s="128"/>
       <c r="AF55" s="99"/>
       <c r="AG55" s="98"/>
       <c r="AH55" s="6"/>
@@ -7337,14 +7417,14 @@
       <c r="AR55" s="4"/>
     </row>
     <row r="56" spans="1:44" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="161"/>
+      <c r="A56" s="158"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="128"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="124"/>
       <c r="I56" s="6"/>
       <c r="J56" s="96"/>
       <c r="K56" s="97"/>
@@ -7361,13 +7441,13 @@
       <c r="V56" s="97"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="130"/>
-      <c r="Z56" s="130"/>
-      <c r="AA56" s="130"/>
-      <c r="AB56" s="130"/>
-      <c r="AC56" s="130"/>
-      <c r="AD56" s="130"/>
-      <c r="AE56" s="130"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="128"/>
+      <c r="AC56" s="128"/>
+      <c r="AD56" s="128"/>
+      <c r="AE56" s="128"/>
       <c r="AF56" s="6"/>
       <c r="AG56" s="98"/>
       <c r="AH56" s="6"/>
@@ -7383,7 +7463,7 @@
       <c r="AR56" s="4"/>
     </row>
     <row r="57" spans="1:44" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="161"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="100"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
@@ -7429,7 +7509,7 @@
       <c r="AR57" s="4"/>
     </row>
     <row r="58" spans="1:44" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="162"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="108"/>
       <c r="C58" s="108"/>
       <c r="D58" s="108"/>
@@ -7476,79 +7556,79 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="Y51:AE52"/>
-    <mergeCell ref="A2:A58"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="AG6:AP6"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="T3:AD3"/>
     <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="AC6:AE7"/>
-    <mergeCell ref="T3:AD3"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="Y51:AE52"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A2:A58"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="AG6:AP6"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="Y55:AE56"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="C51:H51"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="C52:H52"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="T4:AD4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="Y53:AE54"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="T4:AD4"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:L48">
     <cfRule type="colorScale" priority="14">
@@ -7649,43 +7729,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
+      <c r="A1" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="122" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
